--- a/example_data/EMA/label_corrected/arava-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/arava-epar-product-information_en.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>renal || contraindication</t>
+          <t>contraindication || renal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I309" t="inlineStr"/>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I338" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I516" t="inlineStr"/>
